--- a/analysis/post_gemini_data/Participant100/Task2_Easy.xlsx
+++ b/analysis/post_gemini_data/Participant100/Task2_Easy.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD9"/>
+  <dimension ref="A1:AD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,229 +422,155 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>code variable</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>code variable 1</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="H1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>literal 1</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>literal 2</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>literal 3</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>literal 4</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>method call</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>method declaration</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>literal</t>
+        </is>
+      </c>
+      <c r="K1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>literal</t>
+        </is>
+      </c>
+      <c r="M1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>literal</t>
+        </is>
+      </c>
+      <c r="O1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>literal</t>
+        </is>
+      </c>
+      <c r="Q1" t="n">
+        <v>4</v>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>call</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>declaration</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
         <is>
           <t>parameters</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>post_code</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>post_litera1</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>post_literal2</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>post_literal3</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>post_literal4</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>post_methodcall</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>post_methoddec</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>post_param</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>post_return</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>post_summary</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>post_var2</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>post_var4</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>post+var1</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>postarg1</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>return statement</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>return</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>statement</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>var4</t>
         </is>
       </c>
+      <c r="AA1" t="inlineStr"/>
+      <c r="AB1" t="inlineStr"/>
+      <c r="AC1" t="inlineStr"/>
+      <c r="AD1" t="inlineStr"/>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Fixation</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>post_code</t>
+          <t>based</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>post_litera1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>post_literal2</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>post_literal3</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>post_literal4</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>post_methodcall</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>post_methoddec</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>post_param</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>post_return</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>post_summary</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>post_var2</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>post_var4</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>post+var1</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>postarg1</t>
-        </is>
-      </c>
+          <t>metrics</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
@@ -676,44 +590,46 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dwell time (%)</t>
+          <t>Revisit count</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.17</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.22</v>
+        <v>16</v>
       </c>
       <c r="G3" t="n">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
       <c r="J3" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>50.28</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>1.17</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>0.18</v>
+        <v>29</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
@@ -734,44 +650,46 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dwell time (ms)</t>
+          <t>Fixation count</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11896.28</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1368.04</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2786.29</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>433.79</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>517.24</v>
+        <v>204</v>
       </c>
       <c r="G4" t="n">
-        <v>684.03</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>685.67</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
       <c r="J4" t="n">
-        <v>4621.24</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>165645.62</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>2786.29</v>
+        <v>22</v>
       </c>
       <c r="O4" t="n">
-        <v>433.79</v>
+        <v>177</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
@@ -792,44 +710,46 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>First fixation duration (ms)</t>
+          <t>Dwell time (ms)</t>
         </is>
       </c>
       <c r="B5" t="n">
+        <v>433.79</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11896.28</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
         <v>2786.29</v>
       </c>
-      <c r="C5" t="n">
-        <v>467.12</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
+        <v>71802.39</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1368.04</v>
+      </c>
+      <c r="H5" t="n">
         <v>2786.29</v>
       </c>
-      <c r="E5" t="n">
+      <c r="I5" t="n">
         <v>433.79</v>
       </c>
-      <c r="F5" t="n">
+      <c r="J5" t="n">
         <v>517.24</v>
       </c>
-      <c r="G5" t="n">
-        <v>433.79</v>
-      </c>
-      <c r="H5" t="n">
-        <v>350.37</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>350.37</v>
-      </c>
       <c r="K5" t="n">
-        <v>133.5</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
+        <v>250.24</v>
+      </c>
+      <c r="L5" t="n">
+        <v>335.3</v>
+      </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>2786.29</v>
+        <v>10293</v>
       </c>
       <c r="O5" t="n">
-        <v>433.79</v>
+        <v>137315</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -850,23 +770,47 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fixation based metrics</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+          <t>Dwell time (%)</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.11</v>
+      </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.14</v>
+      </c>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="O6" t="n">
+        <v>42.37</v>
+      </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
@@ -886,44 +830,46 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fixation count</t>
+          <t>Fixation duration (ms)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27</v>
+        <v>433.79</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
+        <v>440.6</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2786.29</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>351.97</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>456.01</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>2786.29</v>
+      </c>
+      <c r="I7" t="n">
+        <v>433.79</v>
+      </c>
       <c r="J7" t="n">
-        <v>13</v>
+        <v>517.24</v>
       </c>
       <c r="K7" t="n">
-        <v>266</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
+        <v>250.24</v>
+      </c>
+      <c r="L7" t="n">
+        <v>335.3</v>
+      </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>467.86</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>775.79</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
@@ -944,44 +890,46 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fixation duration (ms)</t>
+          <t>First fixation duration (ms)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>440.6</v>
+        <v>433.79</v>
       </c>
       <c r="C8" t="n">
-        <v>456.01</v>
-      </c>
-      <c r="D8" t="n">
         <v>2786.29</v>
       </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
+        <v>2786.29</v>
+      </c>
+      <c r="F8" t="n">
+        <v>133.49</v>
+      </c>
+      <c r="G8" t="n">
+        <v>467.12</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2786.29</v>
+      </c>
+      <c r="I8" t="n">
         <v>433.79</v>
       </c>
-      <c r="F8" t="n">
+      <c r="J8" t="n">
         <v>517.24</v>
       </c>
-      <c r="G8" t="n">
-        <v>342.02</v>
-      </c>
-      <c r="H8" t="n">
-        <v>342.83</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>355.48</v>
-      </c>
       <c r="K8" t="n">
-        <v>622.73</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
+        <v>250.24</v>
+      </c>
+      <c r="L8" t="n">
+        <v>335.3</v>
+      </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
         <v>2786.29</v>
       </c>
       <c r="O8" t="n">
-        <v>433.79</v>
+        <v>116.81</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
@@ -999,64 +947,6 @@
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Revisit count</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>30</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
